--- a/excel_data/2023-04-16.xlsx
+++ b/excel_data/2023-04-16.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>微信号tongxiaofeng88888
+          <t>微信号***********
 手机号15302299990</t>
         </is>
       </c>
@@ -482,7 +482,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://buyin.jinritemai.com/dashboard/servicehall/daren-profile?log_id=20230416200402A0B13D583AE59C8F4A83&amp;uid=v2_0a27045195f82754c92a64274328935deaeae01f0944838c7161955f4adb3eb7c2a37035776e3c39c31a490a3c6a74a87d7181a704e3378498172c19184e9a4c8b89d6265a0d69d5f73dc95addd72bc58a186e131a3a9cc082c55a3692e9115eeea98ca5cfc692a34010c6d3ae0d18e5ade4c9012201030ad0038b&amp;previous_page_name=0%2C5&amp;previous_page_type=0%2C100&amp;enter_from=1&amp;search_id=</t>
+          <t>https://buyin.jinritemai.com/dashboard/servicehall/daren-profile?log_id=20230416205709C1960AD416373498E3D8&amp;uid=v2_0a277b1986fbc8ce74e99020502d24f6b50ee1e6159ac85105eb780dc1fd6dd2bda7736ef95bb4ee181a490a3c1f5318b9f61592244a64a52476e48d03037b3b60b09da4bd1c49178e41aa4ecb94171f14a1dff8e4dbc7cac0d498cf4a31e3670d028af967e26b26271082d3ae0d18e5ade4c9012201035f2c692c&amp;previous_page_name=0%2C5&amp;previous_page_type=0%2C100&amp;enter_from=1&amp;search_id=</t>
         </is>
       </c>
     </row>
@@ -494,8 +494,8 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>微信号Ling443574337
-手机号18264747507</t>
+          <t>微信号***********
+手机号***********</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://buyin.jinritemai.com/dashboard/servicehall/daren-profile?log_id=20230416200402A0B13D583AE59C8F4A83&amp;uid=v2_0a28aff44ad9c7cf11a8189bcae540dacd7763b4c3d7b1f79f811a22d363d84ef944a8f7ce9f53638aef1a490a3c6a74a87d7181a704e3378498172c19184e9a4c8b89d6265a0d69d5f73dc95addd72bc58a186e131a3a9cc082c55a3692e9115eeea98ca5cfc692a34010c6d3ae0d18e5ade4c901220103fc8e8448&amp;previous_page_name=0%2C5&amp;previous_page_type=0%2C100&amp;enter_from=1&amp;search_id=</t>
+          <t>https://buyin.jinritemai.com/dashboard/servicehall/daren-profile?log_id=20230416205709C1960AD416373498E3D8&amp;uid=v2_0a289ecc02a8fe45c3b6e4e6a4bcc0307c85b961a6d125c8603dc59f5a1aedb2e4af8e330550db4d9a781a490a3c1f5318b9f61592244a64a52476e48d03037b3b60b09da4bd1c49178e41aa4ecb94171f14a1dff8e4dbc7cac0d498cf4a31e3670d028af967e26b26271082d3ae0d18e5ade4c90122010315ccd4e8&amp;previous_page_name=0%2C5&amp;previous_page_type=0%2C100&amp;enter_from=1&amp;search_id=</t>
         </is>
       </c>
     </row>
